--- a/SODO/A Tuc/BAOCAO-NQ10-4069/(101)TRUONGHOP-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/(101)TRUONGHOP-KHONGDUDK-NQ10.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baocao (2)'!$A$2:$H$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Baocao (2)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +382,17 @@
   </si>
   <si>
     <t>Hồ Văn Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÊN GIAO
+CHI NHÁNH VPĐKĐĐ HUYỆN HƯỚNG HOÁ
+TRẦN BẢO TÍN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÊN NHẬN
+PHÒNG TÀI NGUYÊN &amp; MÔI TRƯỜNG HUYỆN HƯỚNG HOÁ
+</t>
   </si>
 </sst>
 </file>
@@ -430,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,7 +492,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -489,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,12 +556,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,6 +569,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,10 +871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A101" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="A105:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,25 +882,25 @@
     <col min="1" max="1" width="4.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.75" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1358,29 +1396,29 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>95</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>36</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>7718</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2190,107 +2228,107 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>51</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="19">
-        <v>21</v>
-      </c>
-      <c r="E53" s="19">
+      <c r="D53" s="17">
+        <v>21</v>
+      </c>
+      <c r="E53" s="17">
         <v>150</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="17">
         <v>7258</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="G53" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>52</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="19">
-        <v>21</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="D54" s="17">
+        <v>21</v>
+      </c>
+      <c r="E54" s="17">
         <v>152</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="17">
         <v>4680</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="G54" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="19">
-        <v>21</v>
-      </c>
-      <c r="E55" s="19">
+      <c r="D55" s="17">
+        <v>21</v>
+      </c>
+      <c r="E55" s="17">
         <v>147</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="17">
         <v>4738</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="G55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="19">
-        <v>21</v>
-      </c>
-      <c r="E56" s="19">
+      <c r="D56" s="17">
+        <v>21</v>
+      </c>
+      <c r="E56" s="17">
         <v>155</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="17">
         <v>6028</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="19" t="s">
+      <c r="G56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3516,22 +3554,47 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+    <row r="104" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A104:H104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:H105"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
